--- a/Documents/DIAGRAM STUDI KASUS V.3.xlsx
+++ b/Documents/DIAGRAM STUDI KASUS V.3.xlsx
@@ -96,9 +96,6 @@
     <t>Waktu Mulai : 19. 00 WIB</t>
   </si>
   <si>
-    <t>Waktu Selesai : 21.30</t>
-  </si>
-  <si>
     <t>Jarak Tempuh : 62.8 KM</t>
   </si>
   <si>
@@ -283,12 +280,15 @@
   <si>
     <t>Departure : -</t>
   </si>
+  <si>
+    <t>Waktu Selesai : 21.30 WIB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -419,52 +427,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,387 +1160,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I31"/>
+  <dimension ref="B5:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="40.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="F27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="I27" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="11" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="1" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="1" t="s">
+      <c r="E30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
